--- a/urgences/Sondage.xlsx
+++ b/urgences/Sondage.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
   <si>
     <t>SFAR</t>
   </si>
@@ -328,51 +328,6 @@
   </si>
   <si>
     <t>IOT</t>
-  </si>
-  <si>
-    <t>90.48.126.200</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>oui</t>
-  </si>
-  <si>
-    <t>-1h</t>
-  </si>
-  <si>
-    <t>immediat</t>
-  </si>
-  <si>
-    <t>+1h</t>
-  </si>
-  <si>
-    <t>Anti-H1 IV</t>
-  </si>
-  <si>
-    <t>Adre IM</t>
-  </si>
-  <si>
-    <t>Adre IV</t>
-  </si>
-  <si>
-    <t>parfois</t>
-  </si>
-  <si>
-    <t>bof</t>
   </si>
 </sst>
 </file>
@@ -481,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,16 +448,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,19 +464,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -877,10 +827,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:AOK5"/>
+  <dimension ref="A1:AOG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR12" sqref="AR12"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,29 +839,27 @@
     <col min="3" max="10" width="4.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.140625" style="1"/>
     <col min="12" max="12" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="13"/>
+    <col min="13" max="13" width="6.140625" style="10"/>
     <col min="14" max="19" width="4.7109375" style="1" customWidth="1"/>
     <col min="20" max="20" width="13" style="1" customWidth="1"/>
     <col min="21" max="22" width="4.7109375" style="1" customWidth="1"/>
     <col min="23" max="23" width="19" style="1" customWidth="1"/>
     <col min="24" max="53" width="4.7109375" style="1" customWidth="1"/>
     <col min="54" max="55" width="6.140625" style="1"/>
-    <col min="56" max="58" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.85546875" style="1" customWidth="1"/>
-    <col min="60" max="60" width="9" style="1" customWidth="1"/>
-    <col min="61" max="61" width="9.42578125" style="1" customWidth="1"/>
-    <col min="62" max="62" width="11.140625" style="1" customWidth="1"/>
-    <col min="63" max="63" width="17" style="1" customWidth="1"/>
-    <col min="64" max="76" width="6.140625" style="1"/>
-    <col min="77" max="112" width="5.28515625" style="1" customWidth="1"/>
-    <col min="113" max="115" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="116" max="117" width="14.5703125" style="1" customWidth="1"/>
-    <col min="118" max="118" width="13.140625" style="1" customWidth="1"/>
-    <col min="119" max="126" width="14.5703125" style="1" customWidth="1"/>
-    <col min="127" max="1077" width="6.140625" style="1"/>
+    <col min="56" max="56" width="9" style="1" customWidth="1"/>
+    <col min="57" max="57" width="9.42578125" style="1" customWidth="1"/>
+    <col min="58" max="58" width="11.140625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="17" style="1" customWidth="1"/>
+    <col min="60" max="72" width="6.140625" style="1"/>
+    <col min="73" max="108" width="5.28515625" style="1" customWidth="1"/>
+    <col min="109" max="111" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="113" width="14.5703125" style="1" customWidth="1"/>
+    <col min="114" max="114" width="13.140625" style="1" customWidth="1"/>
+    <col min="115" max="122" width="14.5703125" style="1" customWidth="1"/>
+    <col min="123" max="1073" width="6.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1077" s="2" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1073" s="2" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>65</v>
       </c>
@@ -936,7 +884,7 @@
       <c r="J1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="10"/>
+      <c r="M1" s="7"/>
       <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1060,853 +1008,582 @@
       <c r="BF1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BG1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>77</v>
+      <c r="BU1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="BY1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CT1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CV1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CY1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="DA1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="DB1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DC1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DD1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="DC1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="DD1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="DE1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="DF1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="DG1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="DH1" s="2" t="s">
-        <v>96</v>
+      <c r="DJ1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="DN1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="DP1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DR1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="DQ1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="DR1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="DS1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="DT1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="DU1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="DV1" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="2" spans="1:1077" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1073" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5" t="s">
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
       <c r="BB2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="BC2" s="6" t="s">
+      <c r="BC2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="6" t="s">
+      <c r="BD2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="9" t="s">
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="BL2" s="5" t="s">
+      <c r="BH2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="5"/>
-      <c r="BQ2" s="5"/>
-      <c r="BR2" s="5"/>
-      <c r="BS2" s="5"/>
-      <c r="BT2" s="5"/>
-      <c r="BU2" s="5"/>
-      <c r="BV2" s="5"/>
-      <c r="BW2" s="5"/>
-      <c r="BX2" s="5"/>
-      <c r="BY2" s="6"/>
-      <c r="BZ2" s="7"/>
-      <c r="CA2" s="7"/>
-      <c r="CB2" s="7"/>
-      <c r="CC2" s="7"/>
-      <c r="CD2" s="7"/>
-      <c r="CE2" s="7"/>
-      <c r="CF2" s="7"/>
-      <c r="CG2" s="7"/>
-      <c r="CH2" s="7"/>
-      <c r="CI2" s="7"/>
-      <c r="CJ2" s="7"/>
-      <c r="CK2" s="7"/>
-      <c r="CL2" s="7"/>
-      <c r="CM2" s="7"/>
-      <c r="CN2" s="7"/>
-      <c r="CO2" s="7"/>
-      <c r="CP2" s="7"/>
-      <c r="CQ2" s="7"/>
-      <c r="CR2" s="7"/>
-      <c r="CS2" s="7"/>
-      <c r="CT2" s="7"/>
-      <c r="CU2" s="7"/>
-      <c r="CV2" s="7"/>
-      <c r="CW2" s="7"/>
-      <c r="CX2" s="7"/>
-      <c r="CY2" s="7"/>
-      <c r="CZ2" s="7"/>
-      <c r="DA2" s="7"/>
-      <c r="DB2" s="7"/>
-      <c r="DC2" s="7"/>
-      <c r="DD2" s="7"/>
-      <c r="DE2" s="7"/>
-      <c r="DF2" s="7"/>
-      <c r="DG2" s="7"/>
-      <c r="DH2" s="8"/>
-      <c r="DI2" s="6" t="s">
+      <c r="BI2" s="14"/>
+      <c r="BJ2" s="14"/>
+      <c r="BK2" s="14"/>
+      <c r="BL2" s="14"/>
+      <c r="BM2" s="14"/>
+      <c r="BN2" s="14"/>
+      <c r="BO2" s="14"/>
+      <c r="BP2" s="14"/>
+      <c r="BQ2" s="14"/>
+      <c r="BR2" s="14"/>
+      <c r="BS2" s="14"/>
+      <c r="BT2" s="14"/>
+      <c r="BU2" s="11"/>
+      <c r="BV2" s="12"/>
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="12"/>
+      <c r="BY2" s="12"/>
+      <c r="BZ2" s="12"/>
+      <c r="CA2" s="12"/>
+      <c r="CB2" s="12"/>
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="12"/>
+      <c r="CE2" s="12"/>
+      <c r="CF2" s="12"/>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="12"/>
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="12"/>
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="12"/>
+      <c r="CN2" s="12"/>
+      <c r="CO2" s="12"/>
+      <c r="CP2" s="12"/>
+      <c r="CQ2" s="12"/>
+      <c r="CR2" s="12"/>
+      <c r="CS2" s="12"/>
+      <c r="CT2" s="12"/>
+      <c r="CU2" s="12"/>
+      <c r="CV2" s="12"/>
+      <c r="CW2" s="12"/>
+      <c r="CX2" s="12"/>
+      <c r="CY2" s="12"/>
+      <c r="CZ2" s="12"/>
+      <c r="DA2" s="12"/>
+      <c r="DB2" s="12"/>
+      <c r="DC2" s="12"/>
+      <c r="DD2" s="13"/>
+      <c r="DE2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="DJ2" s="7"/>
-      <c r="DK2" s="8"/>
-      <c r="DL2" s="3" t="s">
+      <c r="DF2" s="12"/>
+      <c r="DG2" s="13"/>
+      <c r="DH2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="DM2" s="6" t="s">
+      <c r="DI2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="DN2" s="7"/>
-      <c r="DO2" s="7"/>
-      <c r="DP2" s="7"/>
-      <c r="DQ2" s="7"/>
-      <c r="DR2" s="7"/>
-      <c r="DS2" s="7"/>
-      <c r="DT2" s="7"/>
-      <c r="DU2" s="7"/>
-      <c r="DV2" s="8"/>
-      <c r="DW2" s="3" t="s">
+      <c r="DJ2" s="12"/>
+      <c r="DK2" s="12"/>
+      <c r="DL2" s="12"/>
+      <c r="DM2" s="12"/>
+      <c r="DN2" s="12"/>
+      <c r="DO2" s="12"/>
+      <c r="DP2" s="12"/>
+      <c r="DQ2" s="12"/>
+      <c r="DR2" s="13"/>
+      <c r="DS2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="DX2" s="5" t="s">
+      <c r="DT2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="DY2" s="5"/>
+      <c r="DU2" s="14"/>
     </row>
-    <row r="3" spans="1:1077" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M3" s="11"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="8"/>
+    <row r="3" spans="1:1073" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="8"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="13"/>
       <c r="T3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
       <c r="W3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BG3" s="3" t="s">
-        <v>49</v>
+      <c r="BH3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="BN3" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BP3" s="3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="BQ3" s="3" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="BU3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BV3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BW3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BX3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BY3" s="6" t="s">
+      <c r="BU3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="BZ3" s="7"/>
-      <c r="CA3" s="8"/>
-      <c r="CB3" s="6" t="s">
+      <c r="BV3" s="12"/>
+      <c r="BW3" s="13"/>
+      <c r="BX3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="CC3" s="7"/>
-      <c r="CD3" s="8"/>
-      <c r="CE3" s="6" t="s">
+      <c r="BY3" s="12"/>
+      <c r="BZ3" s="13"/>
+      <c r="CA3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="CF3" s="7"/>
-      <c r="CG3" s="8"/>
-      <c r="CH3" s="6" t="s">
+      <c r="CB3" s="12"/>
+      <c r="CC3" s="13"/>
+      <c r="CD3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="CI3" s="7"/>
-      <c r="CJ3" s="8"/>
-      <c r="CK3" s="6" t="s">
+      <c r="CE3" s="12"/>
+      <c r="CF3" s="13"/>
+      <c r="CG3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="CL3" s="7"/>
-      <c r="CM3" s="8"/>
-      <c r="CN3" s="6" t="s">
+      <c r="CH3" s="12"/>
+      <c r="CI3" s="13"/>
+      <c r="CJ3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="CO3" s="7"/>
-      <c r="CP3" s="8"/>
-      <c r="CQ3" s="6" t="s">
+      <c r="CK3" s="12"/>
+      <c r="CL3" s="13"/>
+      <c r="CM3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="CR3" s="7"/>
-      <c r="CS3" s="8"/>
-      <c r="CT3" s="6" t="s">
+      <c r="CN3" s="12"/>
+      <c r="CO3" s="13"/>
+      <c r="CP3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="CU3" s="7"/>
-      <c r="CV3" s="8"/>
-      <c r="CW3" s="6" t="s">
+      <c r="CQ3" s="12"/>
+      <c r="CR3" s="13"/>
+      <c r="CS3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="CX3" s="7"/>
-      <c r="CY3" s="8"/>
-      <c r="CZ3" s="6" t="s">
+      <c r="CT3" s="12"/>
+      <c r="CU3" s="13"/>
+      <c r="CV3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="DA3" s="7"/>
-      <c r="DB3" s="8"/>
-      <c r="DC3" s="6" t="s">
+      <c r="CW3" s="12"/>
+      <c r="CX3" s="13"/>
+      <c r="CY3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="DD3" s="7"/>
-      <c r="DE3" s="8"/>
+      <c r="CZ3" s="12"/>
+      <c r="DA3" s="13"/>
+      <c r="DB3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="DC3" s="12"/>
+      <c r="DD3" s="13"/>
+      <c r="DE3" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="DF3" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="DG3" s="7"/>
-      <c r="DH3" s="8"/>
-      <c r="DI3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="DG3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="DJ3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="DJ3" s="9" t="s">
+      <c r="DK3" s="12"/>
+      <c r="DL3" s="13"/>
+      <c r="DM3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="DK3" s="3" t="s">
+      <c r="DN3" s="12"/>
+      <c r="DO3" s="13"/>
+      <c r="DP3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="DN3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="DO3" s="7"/>
-      <c r="DP3" s="8"/>
-      <c r="DQ3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="DR3" s="7"/>
-      <c r="DS3" s="8"/>
-      <c r="DT3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="DU3" s="7"/>
-      <c r="DV3" s="8"/>
-      <c r="DY3" s="3" t="s">
+      <c r="DQ3" s="12"/>
+      <c r="DR3" s="13"/>
+      <c r="DU3" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:1077" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="4">
-        <v>42316.916284722225</v>
-      </c>
-      <c r="C4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M4" s="12">
-        <v>42309</v>
-      </c>
-      <c r="N4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>105</v>
-      </c>
-      <c r="R4" t="s">
-        <v>105</v>
-      </c>
-      <c r="S4" t="s">
-        <v>105</v>
-      </c>
+    <row r="4" spans="1:1073" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4" s="4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4" s="9"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
       <c r="T4"/>
-      <c r="U4" t="s">
-        <v>104</v>
-      </c>
-      <c r="V4" t="s">
-        <v>105</v>
-      </c>
+      <c r="U4"/>
+      <c r="V4"/>
       <c r="W4"/>
-      <c r="X4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>108</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>105</v>
-      </c>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
       <c r="BG4"/>
-      <c r="BH4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>112</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>115</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>115</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>104</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>105</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>104</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>105</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>105</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>105</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>104</v>
-      </c>
-      <c r="DI4">
-        <v>1</v>
-      </c>
-      <c r="DJ4">
-        <v>2</v>
-      </c>
-      <c r="DK4">
-        <v>3</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>116</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN4">
-        <v>1</v>
-      </c>
-      <c r="DO4">
-        <v>2</v>
-      </c>
-      <c r="DP4">
-        <v>3</v>
-      </c>
-      <c r="DQ4">
-        <v>4</v>
-      </c>
-      <c r="DR4">
-        <v>5</v>
-      </c>
-      <c r="DS4">
-        <v>6</v>
-      </c>
-      <c r="DT4">
-        <v>7</v>
-      </c>
-      <c r="DU4">
-        <v>8</v>
-      </c>
-      <c r="DV4">
-        <v>9</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>109</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>108</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>117</v>
-      </c>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4"/>
+      <c r="BN4"/>
+      <c r="BO4"/>
+      <c r="BP4"/>
+      <c r="BQ4"/>
+      <c r="BR4"/>
+      <c r="BS4"/>
+      <c r="BT4"/>
+      <c r="BU4"/>
+      <c r="BV4"/>
+      <c r="BW4"/>
+      <c r="BX4"/>
+      <c r="BY4"/>
+      <c r="BZ4"/>
+      <c r="CA4"/>
+      <c r="CB4"/>
+      <c r="CC4"/>
+      <c r="CD4"/>
+      <c r="CE4"/>
+      <c r="CF4"/>
+      <c r="CG4"/>
+      <c r="CH4"/>
+      <c r="CI4"/>
+      <c r="CJ4"/>
+      <c r="CK4"/>
+      <c r="CL4"/>
+      <c r="CM4"/>
+      <c r="CN4"/>
+      <c r="CO4"/>
+      <c r="CP4"/>
+      <c r="CQ4"/>
+      <c r="CR4"/>
+      <c r="CS4"/>
+      <c r="CT4"/>
+      <c r="CU4"/>
+      <c r="CV4"/>
+      <c r="CW4"/>
+      <c r="CX4"/>
+      <c r="CY4"/>
+      <c r="CZ4"/>
+      <c r="DA4"/>
+      <c r="DB4"/>
+      <c r="DC4"/>
+      <c r="DD4"/>
+      <c r="DE4"/>
+      <c r="DF4"/>
+      <c r="DG4"/>
+      <c r="DH4"/>
+      <c r="DI4"/>
+      <c r="DJ4"/>
+      <c r="DK4"/>
+      <c r="DL4"/>
+      <c r="DM4"/>
+      <c r="DN4"/>
+      <c r="DO4"/>
+      <c r="DP4"/>
+      <c r="DQ4"/>
+      <c r="DR4"/>
+      <c r="DS4"/>
+      <c r="DT4"/>
+      <c r="DU4"/>
+      <c r="DV4"/>
+      <c r="DW4"/>
+      <c r="DX4"/>
+      <c r="DY4"/>
       <c r="DZ4"/>
       <c r="EA4"/>
       <c r="EB4"/>
@@ -2851,12 +2528,8 @@
       <c r="AOE4"/>
       <c r="AOF4"/>
       <c r="AOG4"/>
-      <c r="AOH4"/>
-      <c r="AOI4"/>
-      <c r="AOJ4"/>
-      <c r="AOK4"/>
     </row>
-    <row r="5" spans="1:1077" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1073" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2869,7 +2542,7 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5" s="12"/>
+      <c r="M5" s="9"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
@@ -2972,13 +2645,13 @@
       <c r="DI5"/>
       <c r="DJ5"/>
       <c r="DK5"/>
-      <c r="DL5"/>
+      <c r="DL5" t="s">
+        <v>85</v>
+      </c>
       <c r="DM5"/>
       <c r="DN5"/>
       <c r="DO5"/>
-      <c r="DP5" t="s">
-        <v>85</v>
-      </c>
+      <c r="DP5"/>
       <c r="DQ5"/>
       <c r="DR5"/>
       <c r="DS5"/>
@@ -3932,42 +3605,37 @@
       <c r="AOE5"/>
       <c r="AOF5"/>
       <c r="AOG5"/>
-      <c r="AOH5"/>
-      <c r="AOI5"/>
-      <c r="AOJ5"/>
-      <c r="AOK5"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="DF3:DH3"/>
-    <mergeCell ref="BY2:DH2"/>
-    <mergeCell ref="DI2:DK2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CY3"/>
-    <mergeCell ref="CZ3:DB3"/>
-    <mergeCell ref="DC3:DE3"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="DN3:DP3"/>
-    <mergeCell ref="DM2:DV2"/>
-    <mergeCell ref="BY3:CA3"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="CE3:CG3"/>
-    <mergeCell ref="CH3:CJ3"/>
-    <mergeCell ref="CK3:CM3"/>
-    <mergeCell ref="CN3:CP3"/>
-    <mergeCell ref="CQ3:CS3"/>
-    <mergeCell ref="BL2:BX2"/>
-    <mergeCell ref="DX2:DY2"/>
+  <mergeCells count="28">
+    <mergeCell ref="DT2:DU2"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:BA2"/>
-    <mergeCell ref="DQ3:DS3"/>
-    <mergeCell ref="DT3:DV3"/>
+    <mergeCell ref="DM3:DO3"/>
+    <mergeCell ref="DP3:DR3"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DI2:DR2"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CI3"/>
+    <mergeCell ref="CJ3:CL3"/>
+    <mergeCell ref="CM3:CO3"/>
+    <mergeCell ref="BH2:BT2"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="BU2:DD2"/>
+    <mergeCell ref="DE2:DG2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="CP3:CR3"/>
+    <mergeCell ref="CS3:CU3"/>
+    <mergeCell ref="CV3:CX3"/>
+    <mergeCell ref="CY3:DA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
